--- a/My HDAC2/output/shapes_and_features/0.75_shapes_and_features_with_labels.xlsx
+++ b/My HDAC2/output/shapes_and_features/0.75_shapes_and_features_with_labels.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B323"/>
+  <dimension ref="A1:B233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS']</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23']</t>
         </is>
       </c>
     </row>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3']</t>
         </is>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y']</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5']</t>
         </is>
       </c>
     </row>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m']</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe']</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d']</t>
         </is>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m']</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH']</t>
         </is>
       </c>
     </row>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d']</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC']</t>
         </is>
       </c>
     </row>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d']</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe']</t>
         </is>
       </c>
     </row>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s']</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se']</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p']</t>
         </is>
       </c>
     </row>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s']</t>
         </is>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v']</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se']</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN']</t>
         </is>
       </c>
     </row>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing']</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2']</t>
         </is>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v']</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1']</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AXp-1d']</t>
         </is>
       </c>
     </row>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AXp-1d', 'AETA_beta']</t>
         </is>
       </c>
     </row>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AXp-1d', 'AETA_beta', 'MINsBr']</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AXp-1d', 'AETA_beta', 'MINsBr', 'GATS4pe']</t>
         </is>
       </c>
     </row>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AXp-1d', 'AETA_beta', 'MINsBr', 'GATS4pe', 'ATSC8p']</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AXp-1d', 'AETA_beta', 'MINsBr', 'GATS4pe', 'ATSC8p', 'ATSC4s']</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AXp-1d', 'AETA_beta', 'MINsBr', 'GATS4pe', 'ATSC8p', 'ATSC4s', 'MINsI']</t>
         </is>
       </c>
     </row>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AXp-1d', 'AETA_beta', 'MINsBr', 'GATS4pe', 'ATSC8p', 'ATSC4s', 'MINsI', 'ATSC8se']</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AXp-1d', 'AETA_beta', 'MINsBr', 'GATS4pe', 'ATSC8p', 'ATSC4s', 'MINsI', 'ATSC8se', 'GATS5s']</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AXp-1d', 'AETA_beta', 'MINsBr', 'GATS4pe', 'ATSC8p', 'ATSC4s', 'MINsI', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A']</t>
         </is>
       </c>
     </row>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AXp-1d', 'AETA_beta', 'MINsBr', 'GATS4pe', 'ATSC8p', 'ATSC4s', 'MINsI', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4']</t>
         </is>
       </c>
     </row>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AXp-1d', 'AETA_beta', 'MINsBr', 'GATS4pe', 'ATSC8p', 'ATSC4s', 'MINsI', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'AATS1s']</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AXp-1d', 'AETA_beta', 'MINsBr', 'GATS4pe', 'ATSC8p', 'ATSC4s', 'MINsI', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'AATS1s', 'AATS1dv']</t>
         </is>
       </c>
     </row>
@@ -2371,7 +2371,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AXp-1d', 'AETA_beta', 'MINsBr', 'GATS4pe', 'ATSC8p', 'ATSC4s', 'MINsI', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'AATS1s', 'AATS1dv', 'AATS5are']</t>
         </is>
       </c>
     </row>
@@ -2381,7 +2381,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AXp-1d', 'AETA_beta', 'MINsBr', 'GATS4pe', 'ATSC8p', 'ATSC4s', 'MINsI', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'AATS1s', 'AATS1dv', 'AATS5are', 'C2SP1']</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AXp-1d', 'AETA_beta', 'MINsBr', 'GATS4pe', 'ATSC8p', 'ATSC4s', 'MINsI', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'AATS1s', 'AATS1dv', 'AATS5are', 'C2SP1', 'ATSC7m']</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AXp-1d', 'AETA_beta', 'MINsBr', 'GATS4pe', 'ATSC8p', 'ATSC4s', 'MINsI', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'AATS1s', 'AATS1dv', 'AATS5are', 'C2SP1', 'ATSC7m', 'AXp-2dv']</t>
         </is>
       </c>
     </row>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AXp-1d', 'AETA_beta', 'MINsBr', 'GATS4pe', 'ATSC8p', 'ATSC4s', 'MINsI', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'AATS1s', 'AATS1dv', 'AATS5are', 'C2SP1', 'ATSC7m', 'AXp-2dv', 'AATS6m']</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AXp-1d', 'AETA_beta', 'MINsBr', 'GATS4pe', 'ATSC8p', 'ATSC4s', 'MINsI', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'AATS1s', 'AATS1dv', 'AATS5are', 'C2SP1', 'ATSC7m', 'AXp-2dv', 'AATS6m', 'AMID_X']</t>
         </is>
       </c>
     </row>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AXp-1d', 'AETA_beta', 'MINsBr', 'GATS4pe', 'ATSC8p', 'ATSC4s', 'MINsI', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'AATS1s', 'AATS1dv', 'AATS5are', 'C2SP1', 'ATSC7m', 'AXp-2dv', 'AATS6m', 'AMID_X', 'BCUTp-1h']</t>
         </is>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AXp-1d', 'AETA_beta', 'MINsBr', 'GATS4pe', 'ATSC8p', 'ATSC4s', 'MINsI', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'AATS1s', 'AATS1dv', 'AATS5are', 'C2SP1', 'ATSC7m', 'AXp-2dv', 'AATS6m', 'AMID_X', 'BCUTp-1h', 'ATSC8c']</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AXp-1d', 'AETA_beta', 'MINsBr', 'GATS4pe', 'ATSC8p', 'ATSC4s', 'MINsI', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'AATS1s', 'AATS1dv', 'AATS5are', 'C2SP1', 'ATSC7m', 'AXp-2dv', 'AATS6m', 'AMID_X', 'BCUTp-1h', 'ATSC8c', 'NdCH2']</t>
         </is>
       </c>
     </row>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AXp-1d', 'AETA_beta', 'MINsBr', 'GATS4pe', 'ATSC8p', 'ATSC4s', 'MINsI', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'AATS1s', 'AATS1dv', 'AATS5are', 'C2SP1', 'ATSC7m', 'AXp-2dv', 'AATS6m', 'AMID_X', 'BCUTp-1h', 'ATSC8c', 'NdCH2', 'BCUTm-1h']</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AXp-1d', 'AETA_beta', 'MINsBr', 'GATS4pe', 'ATSC8p', 'ATSC4s', 'MINsI', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'AATS1s', 'AATS1dv', 'AATS5are', 'C2SP1', 'ATSC7m', 'AXp-2dv', 'AATS6m', 'AMID_X', 'BCUTp-1h', 'ATSC8c', 'NdCH2', 'BCUTm-1h', 'ATSC7d']</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AXp-1d', 'AETA_beta', 'MINsBr', 'GATS4pe', 'ATSC8p', 'ATSC4s', 'MINsI', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'AATS1s', 'AATS1dv', 'AATS5are', 'C2SP1', 'ATSC7m', 'AXp-2dv', 'AATS6m', 'AMID_X', 'BCUTp-1h', 'ATSC8c', 'NdCH2', 'BCUTm-1h', 'ATSC7d', 'AATSC0v']</t>
         </is>
       </c>
     </row>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AXp-1d', 'AETA_beta', 'MINsBr', 'GATS4pe', 'ATSC8p', 'ATSC4s', 'MINsI', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'AATS1s', 'AATS1dv', 'AATS5are', 'C2SP1', 'ATSC7m', 'AXp-2dv', 'AATS6m', 'AMID_X', 'BCUTp-1h', 'ATSC8c', 'NdCH2', 'BCUTm-1h', 'ATSC7d', 'AATSC0v', 'AATSC2m']</t>
         </is>
       </c>
     </row>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AXp-1d', 'AETA_beta', 'MINsBr', 'GATS4pe', 'ATSC8p', 'ATSC4s', 'MINsI', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'AATS1s', 'AATS1dv', 'AATS5are', 'C2SP1', 'ATSC7m', 'AXp-2dv', 'AATS6m', 'AMID_X', 'BCUTp-1h', 'ATSC8c', 'NdCH2', 'BCUTm-1h', 'ATSC7d', 'AATSC0v', 'AATSC2m', 'ATSC3i']</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AXp-1d', 'AETA_beta', 'MINsBr', 'GATS4pe', 'ATSC8p', 'ATSC4s', 'MINsI', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'AATS1s', 'AATS1dv', 'AATS5are', 'C2SP1', 'ATSC7m', 'AXp-2dv', 'AATS6m', 'AMID_X', 'BCUTp-1h', 'ATSC8c', 'NdCH2', 'BCUTm-1h', 'ATSC7d', 'AATSC0v', 'AATSC2m', 'ATSC3i', 'AATSC7se']</t>
         </is>
       </c>
     </row>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AXp-1d', 'AETA_beta', 'MINsBr', 'GATS4pe', 'ATSC8p', 'ATSC4s', 'MINsI', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'AATS1s', 'AATS1dv', 'AATS5are', 'C2SP1', 'ATSC7m', 'AXp-2dv', 'AATS6m', 'AMID_X', 'BCUTp-1h', 'ATSC8c', 'NdCH2', 'BCUTm-1h', 'ATSC7d', 'AATSC0v', 'AATSC2m', 'ATSC3i', 'AATSC7se', 'n7AHRing']</t>
         </is>
       </c>
     </row>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AXp-1d', 'AETA_beta', 'MINsBr', 'GATS4pe', 'ATSC8p', 'ATSC4s', 'MINsI', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'AATS1s', 'AATS1dv', 'AATS5are', 'C2SP1', 'ATSC7m', 'AXp-2dv', 'AATS6m', 'AMID_X', 'BCUTp-1h', 'ATSC8c', 'NdCH2', 'BCUTm-1h', 'ATSC7d', 'AATSC0v', 'AATSC2m', 'ATSC3i', 'AATSC7se', 'n7AHRing', 'nG12FHRing']</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AXp-1d', 'AETA_beta', 'MINsBr', 'GATS4pe', 'ATSC8p', 'ATSC4s', 'MINsI', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'AATS1s', 'AATS1dv', 'AATS5are', 'C2SP1', 'ATSC7m', 'AXp-2dv', 'AATS6m', 'AMID_X', 'BCUTp-1h', 'ATSC8c', 'NdCH2', 'BCUTm-1h', 'ATSC7d', 'AATSC0v', 'AATSC2m', 'ATSC3i', 'AATSC7se', 'n7AHRing', 'nG12FHRing', 'AXp-6dv']</t>
         </is>
       </c>
     </row>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AXp-1d', 'AETA_beta', 'MINsBr', 'GATS4pe', 'ATSC8p', 'ATSC4s', 'MINsI', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'AATS1s', 'AATS1dv', 'AATS5are', 'C2SP1', 'ATSC7m', 'AXp-2dv', 'AATS6m', 'AMID_X', 'BCUTp-1h', 'ATSC8c', 'NdCH2', 'BCUTm-1h', 'ATSC7d', 'AATSC0v', 'AATSC2m', 'ATSC3i', 'AATSC7se', 'n7AHRing', 'nG12FHRing', 'AXp-6dv', 'nS']</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AXp-1d', 'AETA_beta', 'MINsBr', 'GATS4pe', 'ATSC8p', 'ATSC4s', 'MINsI', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'AATS1s', 'AATS1dv', 'AATS5are', 'C2SP1', 'ATSC7m', 'AXp-2dv', 'AATS6m', 'AMID_X', 'BCUTp-1h', 'ATSC8c', 'NdCH2', 'BCUTm-1h', 'ATSC7d', 'AATSC0v', 'AATSC2m', 'ATSC3i', 'AATSC7se', 'n7AHRing', 'nG12FHRing', 'AXp-6dv', 'nS', 'AATSC8i']</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AXp-1d', 'AETA_beta', 'MINsBr', 'GATS4pe', 'ATSC8p', 'ATSC4s', 'MINsI', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'AATS1s', 'AATS1dv', 'AATS5are', 'C2SP1', 'ATSC7m', 'AXp-2dv', 'AATS6m', 'AMID_X', 'BCUTp-1h', 'ATSC8c', 'NdCH2', 'BCUTm-1h', 'ATSC7d', 'AATSC0v', 'AATSC2m', 'ATSC3i', 'AATSC7se', 'n7AHRing', 'nG12FHRing', 'AXp-6dv', 'nS', 'AATSC8i', 'nAcid']</t>
         </is>
       </c>
     </row>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AXp-1d', 'AETA_beta', 'MINsBr', 'GATS4pe', 'ATSC8p', 'ATSC4s', 'MINsI', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'AATS1s', 'AATS1dv', 'AATS5are', 'C2SP1', 'ATSC7m', 'AXp-2dv', 'AATS6m', 'AMID_X', 'BCUTp-1h', 'ATSC8c', 'NdCH2', 'BCUTm-1h', 'ATSC7d', 'AATSC0v', 'AATSC2m', 'ATSC3i', 'AATSC7se', 'n7AHRing', 'nG12FHRing', 'AXp-6dv', 'nS', 'AATSC8i', 'nAcid', 'NssS']</t>
         </is>
       </c>
     </row>
@@ -2591,7 +2591,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AXp-1d', 'AETA_beta', 'MINsBr', 'GATS4pe', 'ATSC8p', 'ATSC4s', 'MINsI', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'AATS1s', 'AATS1dv', 'AATS5are', 'C2SP1', 'ATSC7m', 'AXp-2dv', 'AATS6m', 'AMID_X', 'BCUTp-1h', 'ATSC8c', 'NdCH2', 'BCUTm-1h', 'ATSC7d', 'AATSC0v', 'AATSC2m', 'ATSC3i', 'AATSC7se', 'n7AHRing', 'nG12FHRing', 'AXp-6dv', 'nS', 'AATSC8i', 'nAcid', 'NssS', 'GATS1dv']</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AXp-1d', 'AETA_beta', 'MINsBr', 'GATS4pe', 'ATSC8p', 'ATSC4s', 'MINsI', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'AATS1s', 'AATS1dv', 'AATS5are', 'C2SP1', 'ATSC7m', 'AXp-2dv', 'AATS6m', 'AMID_X', 'BCUTp-1h', 'ATSC8c', 'NdCH2', 'BCUTm-1h', 'ATSC7d', 'AATSC0v', 'AATSC2m', 'ATSC3i', 'AATSC7se', 'n7AHRing', 'nG12FHRing', 'AXp-6dv', 'nS', 'AATSC8i', 'nAcid', 'NssS', 'GATS1dv', 'PEOE_VSA6']</t>
         </is>
       </c>
     </row>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AXp-1d', 'AETA_beta', 'MINsBr', 'GATS4pe', 'ATSC8p', 'ATSC4s', 'MINsI', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'AATS1s', 'AATS1dv', 'AATS5are', 'C2SP1', 'ATSC7m', 'AXp-2dv', 'AATS6m', 'AMID_X', 'BCUTp-1h', 'ATSC8c', 'NdCH2', 'BCUTm-1h', 'ATSC7d', 'AATSC0v', 'AATSC2m', 'ATSC3i', 'AATSC7se', 'n7AHRing', 'nG12FHRing', 'AXp-6dv', 'nS', 'AATSC8i', 'nAcid', 'NssS', 'GATS1dv', 'PEOE_VSA6', 'AXp-7d']</t>
         </is>
       </c>
     </row>
@@ -2621,7 +2621,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AXp-1d', 'AETA_beta', 'MINsBr', 'GATS4pe', 'ATSC8p', 'ATSC4s', 'MINsI', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'AATS1s', 'AATS1dv', 'AATS5are', 'C2SP1', 'ATSC7m', 'AXp-2dv', 'AATS6m', 'AMID_X', 'BCUTp-1h', 'ATSC8c', 'NdCH2', 'BCUTm-1h', 'ATSC7d', 'AATSC0v', 'AATSC2m', 'ATSC3i', 'AATSC7se', 'n7AHRing', 'nG12FHRing', 'AXp-6dv', 'nS', 'AATSC8i', 'nAcid', 'NssS', 'GATS1dv', 'PEOE_VSA6', 'AXp-7d', 'AXp-6d']</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AXp-1d', 'AETA_beta', 'MINsBr', 'GATS4pe', 'ATSC8p', 'ATSC4s', 'MINsI', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'AATS1s', 'AATS1dv', 'AATS5are', 'C2SP1', 'ATSC7m', 'AXp-2dv', 'AATS6m', 'AMID_X', 'BCUTp-1h', 'ATSC8c', 'NdCH2', 'BCUTm-1h', 'ATSC7d', 'AATSC0v', 'AATSC2m', 'ATSC3i', 'AATSC7se', 'n7AHRing', 'nG12FHRing', 'AXp-6dv', 'nS', 'AATSC8i', 'nAcid', 'NssS', 'GATS1dv', 'PEOE_VSA6', 'AXp-7d', 'AXp-6d', 'EState_VSA5']</t>
         </is>
       </c>
     </row>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AXp-1d', 'AETA_beta', 'MINsBr', 'GATS4pe', 'ATSC8p', 'ATSC4s', 'MINsI', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'AATS1s', 'AATS1dv', 'AATS5are', 'C2SP1', 'ATSC7m', 'AXp-2dv', 'AATS6m', 'AMID_X', 'BCUTp-1h', 'ATSC8c', 'NdCH2', 'BCUTm-1h', 'ATSC7d', 'AATSC0v', 'AATSC2m', 'ATSC3i', 'AATSC7se', 'n7AHRing', 'nG12FHRing', 'AXp-6dv', 'nS', 'AATSC8i', 'nAcid', 'NssS', 'GATS1dv', 'PEOE_VSA6', 'AXp-7d', 'AXp-6d', 'EState_VSA5', 'GATS2s']</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AXp-1d', 'AETA_beta', 'MINsBr', 'GATS4pe', 'ATSC8p', 'ATSC4s', 'MINsI', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'AATS1s', 'AATS1dv', 'AATS5are', 'C2SP1', 'ATSC7m', 'AXp-2dv', 'AATS6m', 'AMID_X', 'BCUTp-1h', 'ATSC8c', 'NdCH2', 'BCUTm-1h', 'ATSC7d', 'AATSC0v', 'AATSC2m', 'ATSC3i', 'AATSC7se', 'n7AHRing', 'nG12FHRing', 'AXp-6dv', 'nS', 'AATSC8i', 'nAcid', 'NssS', 'GATS1dv', 'PEOE_VSA6', 'AXp-7d', 'AXp-6d', 'EState_VSA5', 'GATS2s', 'GATS5d']</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AXp-1d', 'AETA_beta', 'MINsBr', 'GATS4pe', 'ATSC8p', 'ATSC4s', 'MINsI', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'AATS1s', 'AATS1dv', 'AATS5are', 'C2SP1', 'ATSC7m', 'AXp-2dv', 'AATS6m', 'AMID_X', 'BCUTp-1h', 'ATSC8c', 'NdCH2', 'BCUTm-1h', 'ATSC7d', 'AATSC0v', 'AATSC2m', 'ATSC3i', 'AATSC7se', 'n7AHRing', 'nG12FHRing', 'AXp-6dv', 'nS', 'AATSC8i', 'nAcid', 'NssS', 'GATS1dv', 'PEOE_VSA6', 'AXp-7d', 'AXp-6d', 'EState_VSA5', 'GATS2s', 'GATS5d', 'GATS5dv']</t>
         </is>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AXp-1d', 'AETA_beta', 'MINsBr', 'GATS4pe', 'ATSC8p', 'ATSC4s', 'MINsI', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'AATS1s', 'AATS1dv', 'AATS5are', 'C2SP1', 'ATSC7m', 'AXp-2dv', 'AATS6m', 'AMID_X', 'BCUTp-1h', 'ATSC8c', 'NdCH2', 'BCUTm-1h', 'ATSC7d', 'AATSC0v', 'AATSC2m', 'ATSC3i', 'AATSC7se', 'n7AHRing', 'nG12FHRing', 'AXp-6dv', 'nS', 'AATSC8i', 'nAcid', 'NssS', 'GATS1dv', 'PEOE_VSA6', 'AXp-7d', 'AXp-6d', 'EState_VSA5', 'GATS2s', 'GATS5d', 'GATS5dv', 'MATS7d']</t>
         </is>
       </c>
     </row>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AXp-1d', 'AETA_beta', 'MINsBr', 'GATS4pe', 'ATSC8p', 'ATSC4s', 'MINsI', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'AATS1s', 'AATS1dv', 'AATS5are', 'C2SP1', 'ATSC7m', 'AXp-2dv', 'AATS6m', 'AMID_X', 'BCUTp-1h', 'ATSC8c', 'NdCH2', 'BCUTm-1h', 'ATSC7d', 'AATSC0v', 'AATSC2m', 'ATSC3i', 'AATSC7se', 'n7AHRing', 'nG12FHRing', 'AXp-6dv', 'nS', 'AATSC8i', 'nAcid', 'NssS', 'GATS1dv', 'PEOE_VSA6', 'AXp-7d', 'AXp-6d', 'EState_VSA5', 'GATS2s', 'GATS5d', 'GATS5dv', 'MATS7d', 'BalabanJ']</t>
         </is>
       </c>
     </row>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AXp-1d', 'AETA_beta', 'MINsBr', 'GATS4pe', 'ATSC8p', 'ATSC4s', 'MINsI', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'AATS1s', 'AATS1dv', 'AATS5are', 'C2SP1', 'ATSC7m', 'AXp-2dv', 'AATS6m', 'AMID_X', 'BCUTp-1h', 'ATSC8c', 'NdCH2', 'BCUTm-1h', 'ATSC7d', 'AATSC0v', 'AATSC2m', 'ATSC3i', 'AATSC7se', 'n7AHRing', 'nG12FHRing', 'AXp-6dv', 'nS', 'AATSC8i', 'nAcid', 'NssS', 'GATS1dv', 'PEOE_VSA6', 'AXp-7d', 'AXp-6d', 'EState_VSA5', 'GATS2s', 'GATS5d', 'GATS5dv', 'MATS7d', 'BalabanJ', 'ATSC7s']</t>
         </is>
       </c>
     </row>
@@ -2701,7 +2701,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AXp-1d', 'AETA_beta', 'MINsBr', 'GATS4pe', 'ATSC8p', 'ATSC4s', 'MINsI', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'AATS1s', 'AATS1dv', 'AATS5are', 'C2SP1', 'ATSC7m', 'AXp-2dv', 'AATS6m', 'AMID_X', 'BCUTp-1h', 'ATSC8c', 'NdCH2', 'BCUTm-1h', 'ATSC7d', 'AATSC0v', 'AATSC2m', 'ATSC3i', 'AATSC7se', 'n7AHRing', 'nG12FHRing', 'AXp-6dv', 'nS', 'AATSC8i', 'nAcid', 'NssS', 'GATS1dv', 'PEOE_VSA6', 'AXp-7d', 'AXp-6d', 'EState_VSA5', 'GATS2s', 'GATS5d', 'GATS5dv', 'MATS7d', 'BalabanJ', 'ATSC7s', 'ATSC7dv']</t>
         </is>
       </c>
     </row>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AXp-1d', 'AETA_beta', 'MINsBr', 'GATS4pe', 'ATSC8p', 'ATSC4s', 'MINsI', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'AATS1s', 'AATS1dv', 'AATS5are', 'C2SP1', 'ATSC7m', 'AXp-2dv', 'AATS6m', 'AMID_X', 'BCUTp-1h', 'ATSC8c', 'NdCH2', 'BCUTm-1h', 'ATSC7d', 'AATSC0v', 'AATSC2m', 'ATSC3i', 'AATSC7se', 'n7AHRing', 'nG12FHRing', 'AXp-6dv', 'nS', 'AATSC8i', 'nAcid', 'NssS', 'GATS1dv', 'PEOE_VSA6', 'AXp-7d', 'AXp-6d', 'EState_VSA5', 'GATS2s', 'GATS5d', 'GATS5dv', 'MATS7d', 'BalabanJ', 'ATSC7s', 'ATSC7dv', 'GATS1s']</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AXp-1d', 'AETA_beta', 'MINsBr', 'GATS4pe', 'ATSC8p', 'ATSC4s', 'MINsI', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'AATS1s', 'AATS1dv', 'AATS5are', 'C2SP1', 'ATSC7m', 'AXp-2dv', 'AATS6m', 'AMID_X', 'BCUTp-1h', 'ATSC8c', 'NdCH2', 'BCUTm-1h', 'ATSC7d', 'AATSC0v', 'AATSC2m', 'ATSC3i', 'AATSC7se', 'n7AHRing', 'nG12FHRing', 'AXp-6dv', 'nS', 'AATSC8i', 'nAcid', 'NssS', 'GATS1dv', 'PEOE_VSA6', 'AXp-7d', 'AXp-6d', 'EState_VSA5', 'GATS2s', 'GATS5d', 'GATS5dv', 'MATS7d', 'BalabanJ', 'ATSC7s', 'ATSC7dv', 'GATS1s', 'AATSC0p']</t>
         </is>
       </c>
     </row>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AXp-1d', 'AETA_beta', 'MINsBr', 'GATS4pe', 'ATSC8p', 'ATSC4s', 'MINsI', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'AATS1s', 'AATS1dv', 'AATS5are', 'C2SP1', 'ATSC7m', 'AXp-2dv', 'AATS6m', 'AMID_X', 'BCUTp-1h', 'ATSC8c', 'NdCH2', 'BCUTm-1h', 'ATSC7d', 'AATSC0v', 'AATSC2m', 'ATSC3i', 'AATSC7se', 'n7AHRing', 'nG12FHRing', 'AXp-6dv', 'nS', 'AATSC8i', 'nAcid', 'NssS', 'GATS1dv', 'PEOE_VSA6', 'AXp-7d', 'AXp-6d', 'EState_VSA5', 'GATS2s', 'GATS5d', 'GATS5dv', 'MATS7d', 'BalabanJ', 'ATSC7s', 'ATSC7dv', 'GATS1s', 'AATSC0p', 'fMF']</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AXp-1d', 'AETA_beta', 'MINsBr', 'GATS4pe', 'ATSC8p', 'ATSC4s', 'MINsI', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'AATS1s', 'AATS1dv', 'AATS5are', 'C2SP1', 'ATSC7m', 'AXp-2dv', 'AATS6m', 'AMID_X', 'BCUTp-1h', 'ATSC8c', 'NdCH2', 'BCUTm-1h', 'ATSC7d', 'AATSC0v', 'AATSC2m', 'ATSC3i', 'AATSC7se', 'n7AHRing', 'nG12FHRing', 'AXp-6dv', 'nS', 'AATSC8i', 'nAcid', 'NssS', 'GATS1dv', 'PEOE_VSA6', 'AXp-7d', 'AXp-6d', 'EState_VSA5', 'GATS2s', 'GATS5d', 'GATS5dv', 'MATS7d', 'BalabanJ', 'ATSC7s', 'ATSC7dv', 'GATS1s', 'AATSC0p', 'fMF', 'RNCG']</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AXp-1d', 'AETA_beta', 'MINsBr', 'GATS4pe', 'ATSC8p', 'ATSC4s', 'MINsI', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'AATS1s', 'AATS1dv', 'AATS5are', 'C2SP1', 'ATSC7m', 'AXp-2dv', 'AATS6m', 'AMID_X', 'BCUTp-1h', 'ATSC8c', 'NdCH2', 'BCUTm-1h', 'ATSC7d', 'AATSC0v', 'AATSC2m', 'ATSC3i', 'AATSC7se', 'n7AHRing', 'nG12FHRing', 'AXp-6dv', 'nS', 'AATSC8i', 'nAcid', 'NssS', 'GATS1dv', 'PEOE_VSA6', 'AXp-7d', 'AXp-6d', 'EState_VSA5', 'GATS2s', 'GATS5d', 'GATS5dv', 'MATS7d', 'BalabanJ', 'ATSC7s', 'ATSC7dv', 'GATS1s', 'AATSC0p', 'fMF', 'RNCG', 'ATSC8d']</t>
         </is>
       </c>
     </row>
@@ -2761,907 +2761,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i']</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="n">
-        <v>233</v>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN']</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="n">
-        <v>234</v>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase']</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
-        <v>235</v>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s']</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
-        <v>236</v>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1']</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
-        <v>237</v>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i']</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>238</v>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c']</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>239</v>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2']</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="n">
-        <v>240</v>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13']</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="n">
-        <v>241</v>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing']</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="n">
-        <v>242</v>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l']</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="n">
-        <v>243</v>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead']</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="n">
-        <v>244</v>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s']</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="n">
-        <v>245</v>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c']</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="n">
-        <v>246</v>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p']</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="n">
-        <v>247</v>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d']</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="n">
-        <v>248</v>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X']</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="n">
-        <v>249</v>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF']</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="n">
-        <v>250</v>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing']</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="n">
-        <v>251</v>
-      </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH']</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="n">
-        <v>252</v>
-      </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c']</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="n">
-        <v>253</v>
-      </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l']</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="n">
-        <v>254</v>
-      </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC']</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="n">
-        <v>255</v>
-      </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h']</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="n">
-        <v>256</v>
-      </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i']</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="n">
-        <v>257</v>
-      </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing']</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="n">
-        <v>258</v>
-      </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing']</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="n">
-        <v>259</v>
-      </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s']</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="n">
-        <v>260</v>
-      </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC']</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="n">
-        <v>261</v>
-      </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se']</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="n">
-        <v>262</v>
-      </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d']</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="n">
-        <v>263</v>
-      </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33']</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="n">
-        <v>264</v>
-      </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv']</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="n">
-        <v>265</v>
-      </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0']</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="n">
-        <v>266</v>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv']</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="n">
-        <v>267</v>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i']</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="n">
-        <v>268</v>
-      </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c']</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="n">
-        <v>269</v>
-      </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z']</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="n">
-        <v>270</v>
-      </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z', 'MAXaasC']</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="n">
-        <v>271</v>
-      </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z', 'MAXaasC', 'AXp-0d']</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="n">
-        <v>272</v>
-      </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z', 'MAXaasC', 'AXp-0d', 'ATSC6pe']</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="n">
-        <v>273</v>
-      </c>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATSC8s']</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="n">
-        <v>274</v>
-      </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATSC8s', 'AATSC7v']</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="n">
-        <v>275</v>
-      </c>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATSC8s', 'AATSC7v', 'nFARing']</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="n">
-        <v>276</v>
-      </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATSC8s', 'AATSC7v', 'nFARing', 'C2SP2']</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="n">
-        <v>277</v>
-      </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATSC8s', 'AATSC7v', 'nFARing', 'C2SP2', 'ATSC3v']</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="n">
-        <v>278</v>
-      </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATSC8s', 'AATSC7v', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1']</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="n">
-        <v>279</v>
-      </c>
-      <c r="B280" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATSC8s', 'AATSC7v', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AETA_beta']</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="n">
-        <v>280</v>
-      </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATSC8s', 'AATSC7v', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AETA_beta', 'MINsBr']</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="n">
-        <v>281</v>
-      </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATSC8s', 'AATSC7v', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AETA_beta', 'MINsBr', 'ATSC3s']</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="n">
-        <v>282</v>
-      </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATSC8s', 'AATSC7v', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AETA_beta', 'MINsBr', 'ATSC3s', 'ATSC8p']</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="n">
-        <v>283</v>
-      </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATSC8s', 'AATSC7v', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AETA_beta', 'MINsBr', 'ATSC3s', 'ATSC8p', 'SsI']</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="n">
-        <v>284</v>
-      </c>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATSC8s', 'AATSC7v', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AETA_beta', 'MINsBr', 'ATSC3s', 'ATSC8p', 'SsI', 'AATS4s']</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="n">
-        <v>285</v>
-      </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATSC8s', 'AATSC7v', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AETA_beta', 'MINsBr', 'ATSC3s', 'ATSC8p', 'SsI', 'AATS4s', 'ATSC8se']</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="n">
-        <v>286</v>
-      </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATSC8s', 'AATSC7v', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AETA_beta', 'MINsBr', 'ATSC3s', 'ATSC8p', 'SsI', 'AATS4s', 'ATSC8se', 'GATS5s']</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="n">
-        <v>287</v>
-      </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATSC8s', 'AATSC7v', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AETA_beta', 'MINsBr', 'ATSC3s', 'ATSC8p', 'SsI', 'AATS4s', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A']</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="n">
-        <v>288</v>
-      </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATSC8s', 'AATSC7v', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AETA_beta', 'MINsBr', 'ATSC3s', 'ATSC8p', 'SsI', 'AATS4s', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4']</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="n">
-        <v>289</v>
-      </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATSC8s', 'AATSC7v', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AETA_beta', 'MINsBr', 'ATSC3s', 'ATSC8p', 'SsI', 'AATS4s', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'ATSC7m']</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="n">
-        <v>290</v>
-      </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATSC8s', 'AATSC7v', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AETA_beta', 'MINsBr', 'ATSC3s', 'ATSC8p', 'SsI', 'AATS4s', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'ATSC7m', 'AATS6m']</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="n">
-        <v>291</v>
-      </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATSC8s', 'AATSC7v', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AETA_beta', 'MINsBr', 'ATSC3s', 'ATSC8p', 'SsI', 'AATS4s', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'ATSC7m', 'AATS6m', 'NdCH2']</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="n">
-        <v>292</v>
-      </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATSC8s', 'AATSC7v', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AETA_beta', 'MINsBr', 'ATSC3s', 'ATSC8p', 'SsI', 'AATS4s', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'ATSC7m', 'AATS6m', 'NdCH2', 'BCUTZ-1h']</t>
-        </is>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="n">
-        <v>293</v>
-      </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATSC8s', 'AATSC7v', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AETA_beta', 'MINsBr', 'ATSC3s', 'ATSC8p', 'SsI', 'AATS4s', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'ATSC7m', 'AATS6m', 'NdCH2', 'BCUTZ-1h', 'AATS5se']</t>
-        </is>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="n">
-        <v>294</v>
-      </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATSC8s', 'AATSC7v', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AETA_beta', 'MINsBr', 'ATSC3s', 'ATSC8p', 'SsI', 'AATS4s', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'ATSC7m', 'AATS6m', 'NdCH2', 'BCUTZ-1h', 'AATS5se', 'ATSC7d']</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="n">
-        <v>295</v>
-      </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATSC8s', 'AATSC7v', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AETA_beta', 'MINsBr', 'ATSC3s', 'ATSC8p', 'SsI', 'AATS4s', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'ATSC7m', 'AATS6m', 'NdCH2', 'BCUTZ-1h', 'AATS5se', 'ATSC7d', 'AATSC0v']</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="n">
-        <v>296</v>
-      </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATSC8s', 'AATSC7v', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AETA_beta', 'MINsBr', 'ATSC3s', 'ATSC8p', 'SsI', 'AATS4s', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'ATSC7m', 'AATS6m', 'NdCH2', 'BCUTZ-1h', 'AATS5se', 'ATSC7d', 'AATSC0v', 'AATS2s']</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="n">
-        <v>297</v>
-      </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATSC8s', 'AATSC7v', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AETA_beta', 'MINsBr', 'ATSC3s', 'ATSC8p', 'SsI', 'AATS4s', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'ATSC7m', 'AATS6m', 'NdCH2', 'BCUTZ-1h', 'AATS5se', 'ATSC7d', 'AATSC0v', 'AATS2s', 'AATSC7se']</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="n">
-        <v>298</v>
-      </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATSC8s', 'AATSC7v', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AETA_beta', 'MINsBr', 'ATSC3s', 'ATSC8p', 'SsI', 'AATS4s', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'ATSC7m', 'AATS6m', 'NdCH2', 'BCUTZ-1h', 'AATS5se', 'ATSC7d', 'AATSC0v', 'AATS2s', 'AATSC7se', 'n7ARing']</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="n">
-        <v>299</v>
-      </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATSC8s', 'AATSC7v', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AETA_beta', 'MINsBr', 'ATSC3s', 'ATSC8p', 'SsI', 'AATS4s', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'ATSC7m', 'AATS6m', 'NdCH2', 'BCUTZ-1h', 'AATS5se', 'ATSC7d', 'AATSC0v', 'AATS2s', 'AATSC7se', 'n7ARing', 'nG12FHRing']</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="n">
-        <v>300</v>
-      </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATSC8s', 'AATSC7v', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AETA_beta', 'MINsBr', 'ATSC3s', 'ATSC8p', 'SsI', 'AATS4s', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'ATSC7m', 'AATS6m', 'NdCH2', 'BCUTZ-1h', 'AATS5se', 'ATSC7d', 'AATSC0v', 'AATS2s', 'AATSC7se', 'n7ARing', 'nG12FHRing', 'AXp-2d']</t>
-        </is>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="n">
-        <v>301</v>
-      </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATSC8s', 'AATSC7v', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AETA_beta', 'MINsBr', 'ATSC3s', 'ATSC8p', 'SsI', 'AATS4s', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'ATSC7m', 'AATS6m', 'NdCH2', 'BCUTZ-1h', 'AATS5se', 'ATSC7d', 'AATSC0v', 'AATS2s', 'AATSC7se', 'n7ARing', 'nG12FHRing', 'AXp-2d', 'nS']</t>
-        </is>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="n">
-        <v>302</v>
-      </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATSC8s', 'AATSC7v', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AETA_beta', 'MINsBr', 'ATSC3s', 'ATSC8p', 'SsI', 'AATS4s', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'ATSC7m', 'AATS6m', 'NdCH2', 'BCUTZ-1h', 'AATS5se', 'ATSC7d', 'AATSC0v', 'AATS2s', 'AATSC7se', 'n7ARing', 'nG12FHRing', 'AXp-2d', 'nS', 'AATSC8i']</t>
-        </is>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="n">
-        <v>303</v>
-      </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATSC8s', 'AATSC7v', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AETA_beta', 'MINsBr', 'ATSC3s', 'ATSC8p', 'SsI', 'AATS4s', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'ATSC7m', 'AATS6m', 'NdCH2', 'BCUTZ-1h', 'AATS5se', 'ATSC7d', 'AATSC0v', 'AATS2s', 'AATSC7se', 'n7ARing', 'nG12FHRing', 'AXp-2d', 'nS', 'AATSC8i', 'nAcid']</t>
-        </is>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="n">
-        <v>304</v>
-      </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATSC8s', 'AATSC7v', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AETA_beta', 'MINsBr', 'ATSC3s', 'ATSC8p', 'SsI', 'AATS4s', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'ATSC7m', 'AATS6m', 'NdCH2', 'BCUTZ-1h', 'AATS5se', 'ATSC7d', 'AATSC0v', 'AATS2s', 'AATSC7se', 'n7ARing', 'nG12FHRing', 'AXp-2d', 'nS', 'AATSC8i', 'nAcid', 'NssS']</t>
-        </is>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="n">
-        <v>305</v>
-      </c>
-      <c r="B306" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATSC8s', 'AATSC7v', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AETA_beta', 'MINsBr', 'ATSC3s', 'ATSC8p', 'SsI', 'AATS4s', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'ATSC7m', 'AATS6m', 'NdCH2', 'BCUTZ-1h', 'AATS5se', 'ATSC7d', 'AATSC0v', 'AATS2s', 'AATSC7se', 'n7ARing', 'nG12FHRing', 'AXp-2d', 'nS', 'AATSC8i', 'nAcid', 'NssS', 'GATS1dv']</t>
-        </is>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="n">
-        <v>306</v>
-      </c>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATSC8s', 'AATSC7v', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AETA_beta', 'MINsBr', 'ATSC3s', 'ATSC8p', 'SsI', 'AATS4s', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'ATSC7m', 'AATS6m', 'NdCH2', 'BCUTZ-1h', 'AATS5se', 'ATSC7d', 'AATSC0v', 'AATS2s', 'AATSC7se', 'n7ARing', 'nG12FHRing', 'AXp-2d', 'nS', 'AATSC8i', 'nAcid', 'NssS', 'GATS1dv', 'PEOE_VSA6']</t>
-        </is>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="n">
-        <v>307</v>
-      </c>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATSC8s', 'AATSC7v', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AETA_beta', 'MINsBr', 'ATSC3s', 'ATSC8p', 'SsI', 'AATS4s', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'ATSC7m', 'AATS6m', 'NdCH2', 'BCUTZ-1h', 'AATS5se', 'ATSC7d', 'AATSC0v', 'AATS2s', 'AATSC7se', 'n7ARing', 'nG12FHRing', 'AXp-2d', 'nS', 'AATSC8i', 'nAcid', 'NssS', 'GATS1dv', 'PEOE_VSA6', 'AXp-7d']</t>
-        </is>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="n">
-        <v>308</v>
-      </c>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATSC8s', 'AATSC7v', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AETA_beta', 'MINsBr', 'ATSC3s', 'ATSC8p', 'SsI', 'AATS4s', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'ATSC7m', 'AATS6m', 'NdCH2', 'BCUTZ-1h', 'AATS5se', 'ATSC7d', 'AATSC0v', 'AATS2s', 'AATSC7se', 'n7ARing', 'nG12FHRing', 'AXp-2d', 'nS', 'AATSC8i', 'nAcid', 'NssS', 'GATS1dv', 'PEOE_VSA6', 'AXp-7d', 'AXp-6d']</t>
-        </is>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="n">
-        <v>309</v>
-      </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATSC8s', 'AATSC7v', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AETA_beta', 'MINsBr', 'ATSC3s', 'ATSC8p', 'SsI', 'AATS4s', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'ATSC7m', 'AATS6m', 'NdCH2', 'BCUTZ-1h', 'AATS5se', 'ATSC7d', 'AATSC0v', 'AATS2s', 'AATSC7se', 'n7ARing', 'nG12FHRing', 'AXp-2d', 'nS', 'AATSC8i', 'nAcid', 'NssS', 'GATS1dv', 'PEOE_VSA6', 'AXp-7d', 'AXp-6d', 'EState_VSA5']</t>
-        </is>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="n">
-        <v>310</v>
-      </c>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATSC8s', 'AATSC7v', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AETA_beta', 'MINsBr', 'ATSC3s', 'ATSC8p', 'SsI', 'AATS4s', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'ATSC7m', 'AATS6m', 'NdCH2', 'BCUTZ-1h', 'AATS5se', 'ATSC7d', 'AATSC0v', 'AATS2s', 'AATSC7se', 'n7ARing', 'nG12FHRing', 'AXp-2d', 'nS', 'AATSC8i', 'nAcid', 'NssS', 'GATS1dv', 'PEOE_VSA6', 'AXp-7d', 'AXp-6d', 'EState_VSA5', 'GATS2s']</t>
-        </is>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="n">
-        <v>311</v>
-      </c>
-      <c r="B312" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATSC8s', 'AATSC7v', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AETA_beta', 'MINsBr', 'ATSC3s', 'ATSC8p', 'SsI', 'AATS4s', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'ATSC7m', 'AATS6m', 'NdCH2', 'BCUTZ-1h', 'AATS5se', 'ATSC7d', 'AATSC0v', 'AATS2s', 'AATSC7se', 'n7ARing', 'nG12FHRing', 'AXp-2d', 'nS', 'AATSC8i', 'nAcid', 'NssS', 'GATS1dv', 'PEOE_VSA6', 'AXp-7d', 'AXp-6d', 'EState_VSA5', 'GATS2s', 'GATS5d']</t>
-        </is>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="n">
-        <v>312</v>
-      </c>
-      <c r="B313" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATSC8s', 'AATSC7v', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AETA_beta', 'MINsBr', 'ATSC3s', 'ATSC8p', 'SsI', 'AATS4s', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'ATSC7m', 'AATS6m', 'NdCH2', 'BCUTZ-1h', 'AATS5se', 'ATSC7d', 'AATSC0v', 'AATS2s', 'AATSC7se', 'n7ARing', 'nG12FHRing', 'AXp-2d', 'nS', 'AATSC8i', 'nAcid', 'NssS', 'GATS1dv', 'PEOE_VSA6', 'AXp-7d', 'AXp-6d', 'EState_VSA5', 'GATS2s', 'GATS5d', 'GATS5dv']</t>
-        </is>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="n">
-        <v>313</v>
-      </c>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATSC8s', 'AATSC7v', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AETA_beta', 'MINsBr', 'ATSC3s', 'ATSC8p', 'SsI', 'AATS4s', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'ATSC7m', 'AATS6m', 'NdCH2', 'BCUTZ-1h', 'AATS5se', 'ATSC7d', 'AATSC0v', 'AATS2s', 'AATSC7se', 'n7ARing', 'nG12FHRing', 'AXp-2d', 'nS', 'AATSC8i', 'nAcid', 'NssS', 'GATS1dv', 'PEOE_VSA6', 'AXp-7d', 'AXp-6d', 'EState_VSA5', 'GATS2s', 'GATS5d', 'GATS5dv', 'MATS7d']</t>
-        </is>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="n">
-        <v>314</v>
-      </c>
-      <c r="B315" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATSC8s', 'AATSC7v', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AETA_beta', 'MINsBr', 'ATSC3s', 'ATSC8p', 'SsI', 'AATS4s', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'ATSC7m', 'AATS6m', 'NdCH2', 'BCUTZ-1h', 'AATS5se', 'ATSC7d', 'AATSC0v', 'AATS2s', 'AATSC7se', 'n7ARing', 'nG12FHRing', 'AXp-2d', 'nS', 'AATSC8i', 'nAcid', 'NssS', 'GATS1dv', 'PEOE_VSA6', 'AXp-7d', 'AXp-6d', 'EState_VSA5', 'GATS2s', 'GATS5d', 'GATS5dv', 'MATS7d', 'BalabanJ']</t>
-        </is>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="n">
-        <v>315</v>
-      </c>
-      <c r="B316" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATSC8s', 'AATSC7v', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AETA_beta', 'MINsBr', 'ATSC3s', 'ATSC8p', 'SsI', 'AATS4s', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'ATSC7m', 'AATS6m', 'NdCH2', 'BCUTZ-1h', 'AATS5se', 'ATSC7d', 'AATSC0v', 'AATS2s', 'AATSC7se', 'n7ARing', 'nG12FHRing', 'AXp-2d', 'nS', 'AATSC8i', 'nAcid', 'NssS', 'GATS1dv', 'PEOE_VSA6', 'AXp-7d', 'AXp-6d', 'EState_VSA5', 'GATS2s', 'GATS5d', 'GATS5dv', 'MATS7d', 'BalabanJ', 'ATSC7s']</t>
-        </is>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="n">
-        <v>316</v>
-      </c>
-      <c r="B317" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATSC8s', 'AATSC7v', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AETA_beta', 'MINsBr', 'ATSC3s', 'ATSC8p', 'SsI', 'AATS4s', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'ATSC7m', 'AATS6m', 'NdCH2', 'BCUTZ-1h', 'AATS5se', 'ATSC7d', 'AATSC0v', 'AATS2s', 'AATSC7se', 'n7ARing', 'nG12FHRing', 'AXp-2d', 'nS', 'AATSC8i', 'nAcid', 'NssS', 'GATS1dv', 'PEOE_VSA6', 'AXp-7d', 'AXp-6d', 'EState_VSA5', 'GATS2s', 'GATS5d', 'GATS5dv', 'MATS7d', 'BalabanJ', 'ATSC7s', 'ATSC7dv']</t>
-        </is>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="n">
-        <v>317</v>
-      </c>
-      <c r="B318" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATSC8s', 'AATSC7v', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AETA_beta', 'MINsBr', 'ATSC3s', 'ATSC8p', 'SsI', 'AATS4s', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'ATSC7m', 'AATS6m', 'NdCH2', 'BCUTZ-1h', 'AATS5se', 'ATSC7d', 'AATSC0v', 'AATS2s', 'AATSC7se', 'n7ARing', 'nG12FHRing', 'AXp-2d', 'nS', 'AATSC8i', 'nAcid', 'NssS', 'GATS1dv', 'PEOE_VSA6', 'AXp-7d', 'AXp-6d', 'EState_VSA5', 'GATS2s', 'GATS5d', 'GATS5dv', 'MATS7d', 'BalabanJ', 'ATSC7s', 'ATSC7dv', 'GATS1s']</t>
-        </is>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="n">
-        <v>318</v>
-      </c>
-      <c r="B319" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATSC8s', 'AATSC7v', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AETA_beta', 'MINsBr', 'ATSC3s', 'ATSC8p', 'SsI', 'AATS4s', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'ATSC7m', 'AATS6m', 'NdCH2', 'BCUTZ-1h', 'AATS5se', 'ATSC7d', 'AATSC0v', 'AATS2s', 'AATSC7se', 'n7ARing', 'nG12FHRing', 'AXp-2d', 'nS', 'AATSC8i', 'nAcid', 'NssS', 'GATS1dv', 'PEOE_VSA6', 'AXp-7d', 'AXp-6d', 'EState_VSA5', 'GATS2s', 'GATS5d', 'GATS5dv', 'MATS7d', 'BalabanJ', 'ATSC7s', 'ATSC7dv', 'GATS1s', 'AATSC0p']</t>
-        </is>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="n">
-        <v>319</v>
-      </c>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATSC8s', 'AATSC7v', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AETA_beta', 'MINsBr', 'ATSC3s', 'ATSC8p', 'SsI', 'AATS4s', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'ATSC7m', 'AATS6m', 'NdCH2', 'BCUTZ-1h', 'AATS5se', 'ATSC7d', 'AATSC0v', 'AATS2s', 'AATSC7se', 'n7ARing', 'nG12FHRing', 'AXp-2d', 'nS', 'AATSC8i', 'nAcid', 'NssS', 'GATS1dv', 'PEOE_VSA6', 'AXp-7d', 'AXp-6d', 'EState_VSA5', 'GATS2s', 'GATS5d', 'GATS5dv', 'MATS7d', 'BalabanJ', 'ATSC7s', 'ATSC7dv', 'GATS1s', 'AATSC0p', 'fMF']</t>
-        </is>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="n">
-        <v>320</v>
-      </c>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATSC8s', 'AATSC7v', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AETA_beta', 'MINsBr', 'ATSC3s', 'ATSC8p', 'SsI', 'AATS4s', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'ATSC7m', 'AATS6m', 'NdCH2', 'BCUTZ-1h', 'AATS5se', 'ATSC7d', 'AATSC0v', 'AATS2s', 'AATSC7se', 'n7ARing', 'nG12FHRing', 'AXp-2d', 'nS', 'AATSC8i', 'nAcid', 'NssS', 'GATS1dv', 'PEOE_VSA6', 'AXp-7d', 'AXp-6d', 'EState_VSA5', 'GATS2s', 'GATS5d', 'GATS5dv', 'MATS7d', 'BalabanJ', 'ATSC7s', 'ATSC7dv', 'GATS1s', 'AATSC0p', 'fMF', 'RNCG']</t>
-        </is>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="n">
-        <v>321</v>
-      </c>
-      <c r="B322" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATSC8s', 'AATSC7v', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AETA_beta', 'MINsBr', 'ATSC3s', 'ATSC8p', 'SsI', 'AATS4s', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'ATSC7m', 'AATS6m', 'NdCH2', 'BCUTZ-1h', 'AATS5se', 'ATSC7d', 'AATSC0v', 'AATS2s', 'AATSC7se', 'n7ARing', 'nG12FHRing', 'AXp-2d', 'nS', 'AATSC8i', 'nAcid', 'NssS', 'GATS1dv', 'PEOE_VSA6', 'AXp-7d', 'AXp-6d', 'EState_VSA5', 'GATS2s', 'GATS5d', 'GATS5dv', 'MATS7d', 'BalabanJ', 'ATSC7s', 'ATSC7dv', 'GATS1s', 'AATSC0p', 'fMF', 'RNCG', 'ATSC8d']</t>
-        </is>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="n">
-        <v>322</v>
-      </c>
-      <c r="B323" t="inlineStr">
-        <is>
-          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MAXddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'C3SP2', 'SaasC', 'GATS2p', 'MAXsOH', 'MDEN-13', 'AATSC0d', 'VR2_A', 'ZMIC5', 'AATS7p', 'AATS6are', 'MDEC-14', 'C1SP1', 'MIC1', 'nCl', 'NddsN', 'NsSH', 'AATSC0dv', 'MDEN-11', 'MAXssssSi', 'NtCH', 'AETA_eta_BR', 'AMID_h', 'ATSC7c', 'MATS3c', 'GATS2dv', 'ZMIC1', 'MAXdssC', 'PEOE_VSA4', 'GATS3s', 'GATS5c', 'nG12FaHRing', 'Xc-5d', 'AATSC3m', 'GATS7p', 'n4ARing', 'MINaaCH', 'MINsssCH', 'MINssCH2', 'VSA_EState4', 'ATSC7p', 'ATSC4v', 'MATS5c', 'Xc-6dv', 'GATS7Z', 'n6Ring', 'ATSC1v', 'JGI3', 'MDEN-12', 'AATS7i', 'AATSC4s', 'MINdssC', 'ATSC7i', 'MATS3se', 'AATSC4c', 'MINaasN', 'SaaO', 'MATS2m', 'JGI6', 'AATS5d', 'GATS4i', 'MATS6se', 'EState_VSA8', 'GATS6are', 'AATSC6s', 'ATSC6c', 'SlogP_VSA10', 'AATS3are', 'EState_VSA7', 'AATS8i', 'NdsN', 'nBase', 'MATS2s', 'VSA_EState1', 'ATSC8i', 'GATS3c', 'MAXsNH2', 'PEOE_VSA13', 'n12AHRing', 'BCUTdv-1l', 'nBridgehead', 'GATS4s', 'GATS4c', 'ETA_shape_p', 'GATS1d', 'MID_X', 'MAXsF', 'n5ARing', 'MINdsCH', 'AATSC8c', 'BCUTp-1l', 'NtsC', 'BCUTv-1h', 'AATSC1i', 'n8FARing', 'nG12aRing', 'ATSC5s', 'MINaasC', 'MATS1se', 'Xc-6d', 'MDEN-33', 'AXp-3dv', 'IC0', 'AXp-0dv', 'AATSC3i', 'ATSC2c', 'ATSC8Z', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATSC8s', 'AATSC7v', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AETA_beta', 'MINsBr', 'ATSC3s', 'ATSC8p', 'SsI', 'AATS4s', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'ATSC7m', 'AATS6m', 'NdCH2', 'BCUTZ-1h', 'AATS5se', 'ATSC7d', 'AATSC0v', 'AATS2s', 'AATSC7se', 'n7ARing', 'nG12FHRing', 'AXp-2d', 'nS', 'AATSC8i', 'nAcid', 'NssS', 'GATS1dv', 'PEOE_VSA6', 'AXp-7d', 'AXp-6d', 'EState_VSA5', 'GATS2s', 'GATS5d', 'GATS5dv', 'MATS7d', 'BalabanJ', 'ATSC7s', 'ATSC7dv', 'GATS1s', 'AATSC0p', 'fMF', 'RNCG', 'ATSC8d', 'RPCG']</t>
+          <t>['MATS4d', 'IC2', 'EState_VSA3', 'GATS8d', 'nSpiro', 'VR3_A', 'MATS5d', 'CIC0', 'NssCH2', 'Xch-7d', 'ATSC1dv', 'ATSC5v', 'MAXdO', 'MPC10', 'GGI1', 'VSA_EState2', 'EState_VSA4', 'piPC10', 'AATSC5p', 'MATS4dv', 'SM1_Dzi', 'TopoPSA(NO)', 'JGI10', 'MINaaN', 'SRW05', 'SlogP_VSA11', 'MDEC-23', 'AETA_eta', 'SMR_VSA9', 'MINssO', 'MINaaNH', 'MAXssNH', 'C1SP2', 'SlogP_VSA1', 'SMR_VSA3', 'MID_N', 'MDEC-34', 'AATS7d', 'MATS5m', 'VSA_EState7', 'JGI7', 'PEOE_VSA7', 'GATS1i', 'AATSC4p', 'VSA_EState9', 'JGI9', 'SMR_VSA4', 'PEOE_VSA2', 'AATSC6p', 'GATS7c', 'SlogP_VSA8', 'PEOE_VSA9', 'Mi', 'GATS7dv', 'n10FHRing', 'ATSC0p', 'MATS1d', 'JGI8', 'GATS8c', 'GATS7i', 'SMR_VSA6', 'GATS1p', 'SlogP_VSA2', 'ATSC0se', 'n6aHRing', 'MAXssCH2', 'nFaHRing', 'RotRatio', 'PEOE_VSA8', 'n6HRing', 'PEOE_VSA3', 'MATS5i', 'AATS8are', 'LogEE_A', 'MID_O', 'BIC2', 'GATS6d', 'PEOE_VSA12', 'MAXsssCH', 'AATS8Z', 'NssO', 'MATS6m', 'Kier3', 'SlogP_VSA4', 'PEOE_VSA11', 'GATS6c', 'ETA_dPsi_A', 'MAXsCH3', 'MDEC-13', 'AATSC1s', 'PEOE_VSA1', 'ATSC6v', 'C1SP3', 'CIC5', 'AATSC6Z', 'JGT10', 'GATS3i', 'SLogP', 'MATS3d', 'MATS5are', 'ATSC5dv', 'AATSC0c', 'MATS4Z', 'ATSC2v', 'GATS3p', 'Xpc-6dv', 'GATS8s', 'GATS2Z', 'AATSC6d', 'VSA_EState5', 'PEOE_VSA10', 'AMID_O', 'NaasC', 'MDEO-12', 'ATSC2dv', 'GATS2d', 'MATS4are', 'MDEC-22', 'SM1_DzZ', 'BIC3', 'ETA_dEpsilon_D', 'n9FHRing', 'C3SP3', 'MINdssS', 'JGI2', 'MATS1c', 'AATSC4i', 'MAXsssN', 'MATS3dv', 'GATS2se', 'EState_VSA9', 'ETA_beta_ns_d', 'GATS6i', 'n10FaRing', 'GATS1pe', 'SlogP_VSA3', 'ETA_shape_x', 'EState_VSA6', 'n10FARing', 'ATS0m', 'SaaS', 'MINaaaC', 'nARing', 'BCUTs-1l', 'MATS6dv', 'nFRing', 'n9FAHRing', 'GATS2i', 'GATS8v', 'nBondsD', 'ATSC1pe', 'MAXssssC', 'AATSC6i', 'AATS8s', 'MINddssS', 'MDEN-23', 'VSA_EState3', 'ETA_shape_y', 'JGI5', 'GATS3m', 'GATS8pe', 'MATS2d', 'ATSC1m', 'SdsCH', 'AATS4d', 'MAXaasC', 'AXp-0d', 'ATSC6pe', 'AATS0s', 'ATSC2se', 'MATS1p', 'AATSC8s', 'AATSC7v', 'ATSC3se', 'MAXdsN', 'nFARing', 'C2SP2', 'ATSC3v', 'EState_VSA1', 'AXp-1d', 'AETA_beta', 'MINsBr', 'GATS4pe', 'ATSC8p', 'ATSC4s', 'MINsI', 'ATSC8se', 'GATS5s', 'ETA_dEpsilon_A', 'JGI4', 'AATS1s', 'AATS1dv', 'AATS5are', 'C2SP1', 'ATSC7m', 'AXp-2dv', 'AATS6m', 'AMID_X', 'BCUTp-1h', 'ATSC8c', 'NdCH2', 'BCUTm-1h', 'ATSC7d', 'AATSC0v', 'AATSC2m', 'ATSC3i', 'AATSC7se', 'n7AHRing', 'nG12FHRing', 'AXp-6dv', 'nS', 'AATSC8i', 'nAcid', 'NssS', 'GATS1dv', 'PEOE_VSA6', 'AXp-7d', 'AXp-6d', 'EState_VSA5', 'GATS2s', 'GATS5d', 'GATS5dv', 'MATS7d', 'BalabanJ', 'ATSC7s', 'ATSC7dv', 'GATS1s', 'AATSC0p', 'fMF', 'RNCG', 'ATSC8d', 'RPCG']</t>
         </is>
       </c>
     </row>
